--- a/documents/APIs.xlsx
+++ b/documents/APIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,126 @@
     "success": true,
     "message": "User registered successfully"
 }</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>đăng ký tài khoản mới, mặc định quyền CUSTOMER</t>
+  </si>
+  <si>
+    <t>đăng nhập, trả về Bearer access token</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/city/all</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>trả về danh sách thành phố</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/city/{id}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/city/update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/city/add</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/city/delete</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>trả về 1 thành phố</t>
+  </si>
+  <si>
+    <t>thêm một thành phố</t>
+  </si>
+  <si>
+    <t>cập nhật thông tin 1 thành phố</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuthController </t>
+  </si>
+  <si>
+    <t>CityController</t>
+  </si>
+  <si>
+    <t>DistrictController</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/district/all</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/district/{id}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/district/add</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/district/update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/district/delete</t>
+  </si>
+  <si>
+    <t>xóa 1 thành phố</t>
+  </si>
+  <si>
+    <t>HouseController</t>
+  </si>
+  <si>
+    <t>ContractController</t>
+  </si>
+  <si>
+    <t>UserController</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/house/all</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/house/{id}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/house/add</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/house/update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/house/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/contract/all</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/contrac/{id}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/contract/add</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/contract/update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/contract/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/user/all</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/user/{id}</t>
   </si>
 </sst>
 </file>
@@ -124,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -443,80 +566,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="185.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="33.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="185.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5:C7" r:id="rId4" display="http://localhost:8080/city/all"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10:C13" r:id="rId10" display="http://localhost:8080/district/all"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C12" r:id="rId13"/>
+    <hyperlink ref="C13" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="C16" r:id="rId17"/>
+    <hyperlink ref="C17" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C28" r:id="rId23"/>
+    <hyperlink ref="C18" r:id="rId24"/>
+    <hyperlink ref="C20:C23" r:id="rId25" display="http://localhost:8080/contract/all"/>
+    <hyperlink ref="C20" r:id="rId26"/>
+    <hyperlink ref="C21" r:id="rId27"/>
+    <hyperlink ref="C22" r:id="rId28"/>
+    <hyperlink ref="C23" r:id="rId29"/>
+    <hyperlink ref="C25" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
 
